--- a/article.xlsx
+++ b/article.xlsx
@@ -407,19 +407,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -431,143 +562,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/article.xlsx
+++ b/article.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection sqref="A1:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/article.xlsx
+++ b/article.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/article.xlsx
+++ b/article.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/article.xlsx
+++ b/article.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
